--- a/SchedulingData/dynamic15/pso/scheduling2_3.xlsx
+++ b/SchedulingData/dynamic15/pso/scheduling2_3.xlsx
@@ -462,59 +462,59 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>222.06</v>
+        <v>217.02</v>
       </c>
       <c r="D2" t="n">
-        <v>299.06</v>
+        <v>270.98</v>
       </c>
       <c r="E2" t="n">
-        <v>9.784000000000001</v>
+        <v>13.452</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>223.56</v>
+        <v>210.66</v>
       </c>
       <c r="D3" t="n">
-        <v>279.52</v>
+        <v>280.56</v>
       </c>
       <c r="E3" t="n">
-        <v>16.528</v>
+        <v>12.584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>213.62</v>
+        <v>217.34</v>
       </c>
       <c r="D4" t="n">
-        <v>257.04</v>
+        <v>283.4</v>
       </c>
       <c r="E4" t="n">
-        <v>14.476</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="5">
@@ -523,36 +523,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>299.06</v>
+        <v>280.56</v>
       </c>
       <c r="D5" t="n">
-        <v>377.98</v>
+        <v>341.42</v>
       </c>
       <c r="E5" t="n">
-        <v>5.472</v>
+        <v>9.608000000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>234.36</v>
+        <v>260.6</v>
       </c>
       <c r="D6" t="n">
-        <v>316.74</v>
+        <v>318.38</v>
       </c>
       <c r="E6" t="n">
-        <v>13.876</v>
+        <v>9.311999999999999</v>
       </c>
     </row>
     <row r="7">
@@ -561,22 +561,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond17</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>377.98</v>
+        <v>341.42</v>
       </c>
       <c r="D7" t="n">
-        <v>420.08</v>
+        <v>379.22</v>
       </c>
       <c r="E7" t="n">
-        <v>2.392</v>
+        <v>7.448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -584,203 +584,203 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>316.74</v>
+        <v>318.38</v>
       </c>
       <c r="D8" t="n">
-        <v>385.04</v>
+        <v>381.48</v>
       </c>
       <c r="E8" t="n">
-        <v>9.676</v>
+        <v>5.112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>218.8</v>
+        <v>379.22</v>
       </c>
       <c r="D9" t="n">
-        <v>283.32</v>
+        <v>412.22</v>
       </c>
       <c r="E9" t="n">
-        <v>12.348</v>
+        <v>5.288</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>420.08</v>
+        <v>381.48</v>
       </c>
       <c r="D10" t="n">
-        <v>487.3</v>
+        <v>428.72</v>
       </c>
       <c r="E10" t="n">
-        <v>30</v>
+        <v>1.528</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>487.3</v>
+        <v>428.72</v>
       </c>
       <c r="D11" t="n">
-        <v>526.02</v>
+        <v>522.0599999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>26.828</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>385.04</v>
+        <v>522.0599999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>458.8</v>
+        <v>578.48</v>
       </c>
       <c r="E12" t="n">
-        <v>5.42</v>
+        <v>26.528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>257.04</v>
+        <v>412.22</v>
       </c>
       <c r="D13" t="n">
-        <v>309.52</v>
+        <v>463.26</v>
       </c>
       <c r="E13" t="n">
-        <v>10.868</v>
+        <v>2.324</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>458.8</v>
+        <v>283.4</v>
       </c>
       <c r="D14" t="n">
-        <v>518.38</v>
+        <v>345.7</v>
       </c>
       <c r="E14" t="n">
-        <v>1.572</v>
+        <v>7.76</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>518.38</v>
+        <v>463.26</v>
       </c>
       <c r="D15" t="n">
-        <v>587.14</v>
+        <v>516.6</v>
       </c>
       <c r="E15" t="n">
-        <v>30</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>279.52</v>
+        <v>516.6</v>
       </c>
       <c r="D16" t="n">
-        <v>328.98</v>
+        <v>593.24</v>
       </c>
       <c r="E16" t="n">
-        <v>13.712</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>587.14</v>
+        <v>578.48</v>
       </c>
       <c r="D17" t="n">
-        <v>627.36</v>
+        <v>629.42</v>
       </c>
       <c r="E17" t="n">
-        <v>27.668</v>
+        <v>23.564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>309.52</v>
+        <v>345.7</v>
       </c>
       <c r="D18" t="n">
-        <v>364.3</v>
+        <v>411.96</v>
       </c>
       <c r="E18" t="n">
-        <v>7.02</v>
+        <v>4.224</v>
       </c>
     </row>
     <row r="19">
@@ -789,112 +789,112 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>328.98</v>
+        <v>411.96</v>
       </c>
       <c r="D19" t="n">
-        <v>379.58</v>
+        <v>458.96</v>
       </c>
       <c r="E19" t="n">
-        <v>10.272</v>
+        <v>1.144</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>627.36</v>
+        <v>458.96</v>
       </c>
       <c r="D20" t="n">
-        <v>670.46</v>
+        <v>528.67</v>
       </c>
       <c r="E20" t="n">
-        <v>24.488</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond43</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>379.58</v>
+        <v>238.9</v>
       </c>
       <c r="D21" t="n">
-        <v>447.98</v>
+        <v>306.2</v>
       </c>
       <c r="E21" t="n">
-        <v>6.532</v>
+        <v>13.04</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond49</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>246.66</v>
+        <v>270.98</v>
       </c>
       <c r="D22" t="n">
-        <v>305.78</v>
+        <v>315.78</v>
       </c>
       <c r="E22" t="n">
-        <v>8.612</v>
+        <v>11.092</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>305.78</v>
+        <v>306.2</v>
       </c>
       <c r="D23" t="n">
-        <v>362.86</v>
+        <v>349.32</v>
       </c>
       <c r="E23" t="n">
-        <v>4.524</v>
+        <v>9.868</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>283.32</v>
+        <v>528.67</v>
       </c>
       <c r="D24" t="n">
-        <v>335.82</v>
+        <v>590.3099999999999</v>
       </c>
       <c r="E24" t="n">
-        <v>10.188</v>
+        <v>26.496</v>
       </c>
     </row>
     <row r="25">
@@ -903,74 +903,74 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond5</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>364.3</v>
+        <v>315.78</v>
       </c>
       <c r="D25" t="n">
-        <v>416.04</v>
+        <v>384.1</v>
       </c>
       <c r="E25" t="n">
-        <v>4.476</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>670.46</v>
+        <v>629.42</v>
       </c>
       <c r="D26" t="n">
-        <v>752.66</v>
+        <v>687.22</v>
       </c>
       <c r="E26" t="n">
-        <v>20.848</v>
+        <v>20.384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>447.98</v>
+        <v>228.14</v>
       </c>
       <c r="D27" t="n">
-        <v>503.92</v>
+        <v>288.12</v>
       </c>
       <c r="E27" t="n">
-        <v>3.568</v>
+        <v>12.428</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>362.86</v>
+        <v>384.1</v>
       </c>
       <c r="D28" t="n">
-        <v>444.32</v>
+        <v>432.02</v>
       </c>
       <c r="E28" t="n">
-        <v>0.988</v>
+        <v>3.708</v>
       </c>
     </row>
     <row r="29">
@@ -979,378 +979,378 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>444.32</v>
+        <v>288.12</v>
       </c>
       <c r="D29" t="n">
-        <v>529.14</v>
+        <v>355.2</v>
       </c>
       <c r="E29" t="n">
-        <v>30</v>
+        <v>8.82</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>335.82</v>
+        <v>432.02</v>
       </c>
       <c r="D30" t="n">
-        <v>394.76</v>
+        <v>518.4</v>
       </c>
       <c r="E30" t="n">
-        <v>5.924</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>526.02</v>
+        <v>518.4</v>
       </c>
       <c r="D31" t="n">
-        <v>581.22</v>
+        <v>604.84</v>
       </c>
       <c r="E31" t="n">
-        <v>22.928</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>581.22</v>
+        <v>590.3099999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>651.12</v>
+        <v>646.95</v>
       </c>
       <c r="E32" t="n">
-        <v>18.068</v>
+        <v>23.952</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>416.04</v>
+        <v>593.24</v>
       </c>
       <c r="D33" t="n">
-        <v>490.94</v>
+        <v>672.28</v>
       </c>
       <c r="E33" t="n">
-        <v>1.096</v>
+        <v>25.736</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>490.94</v>
+        <v>355.2</v>
       </c>
       <c r="D34" t="n">
-        <v>575.45</v>
+        <v>402.9</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>575.45</v>
+        <v>349.32</v>
       </c>
       <c r="D35" t="n">
-        <v>628.71</v>
+        <v>383.42</v>
       </c>
       <c r="E35" t="n">
-        <v>26.864</v>
+        <v>7.588</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>394.76</v>
+        <v>402.9</v>
       </c>
       <c r="D36" t="n">
-        <v>452.46</v>
+        <v>477.7</v>
       </c>
       <c r="E36" t="n">
-        <v>2.284</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>651.12</v>
+        <v>477.7</v>
       </c>
       <c r="D37" t="n">
-        <v>699.86</v>
+        <v>560.8</v>
       </c>
       <c r="E37" t="n">
-        <v>15.824</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>503.92</v>
+        <v>604.84</v>
       </c>
       <c r="D38" t="n">
-        <v>559.9400000000001</v>
+        <v>664.04</v>
       </c>
       <c r="E38" t="n">
-        <v>0.096</v>
+        <v>24.78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>559.9400000000001</v>
+        <v>687.22</v>
       </c>
       <c r="D39" t="n">
-        <v>641.45</v>
+        <v>766.54</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>18.052</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>641.45</v>
+        <v>766.54</v>
       </c>
       <c r="D40" t="n">
-        <v>701.75</v>
+        <v>819</v>
       </c>
       <c r="E40" t="n">
-        <v>27.14</v>
+        <v>14.916</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond17</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>628.71</v>
+        <v>560.8</v>
       </c>
       <c r="D41" t="n">
-        <v>701.11</v>
+        <v>621.1</v>
       </c>
       <c r="E41" t="n">
-        <v>24.704</v>
+        <v>27.14</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>701.11</v>
+        <v>672.28</v>
       </c>
       <c r="D42" t="n">
-        <v>740.91</v>
+        <v>726.5</v>
       </c>
       <c r="E42" t="n">
-        <v>22.344</v>
+        <v>23.404</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>452.46</v>
+        <v>726.5</v>
       </c>
       <c r="D43" t="n">
-        <v>549.1900000000001</v>
+        <v>789.52</v>
       </c>
       <c r="E43" t="n">
-        <v>30</v>
+        <v>20.192</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>549.1900000000001</v>
+        <v>664.04</v>
       </c>
       <c r="D44" t="n">
-        <v>614.67</v>
+        <v>709.64</v>
       </c>
       <c r="E44" t="n">
-        <v>26.112</v>
+        <v>21.36</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>614.67</v>
+        <v>383.42</v>
       </c>
       <c r="D45" t="n">
-        <v>666.71</v>
+        <v>452.9</v>
       </c>
       <c r="E45" t="n">
-        <v>22.528</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>699.86</v>
+        <v>452.9</v>
       </c>
       <c r="D46" t="n">
-        <v>760.4</v>
+        <v>500.6</v>
       </c>
       <c r="E46" t="n">
-        <v>12.86</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>529.14</v>
+        <v>500.6</v>
       </c>
       <c r="D47" t="n">
-        <v>563.84</v>
+        <v>596.8</v>
       </c>
       <c r="E47" t="n">
-        <v>27.72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>666.71</v>
+        <v>709.64</v>
       </c>
       <c r="D48" t="n">
-        <v>711.23</v>
+        <v>765.6</v>
       </c>
       <c r="E48" t="n">
-        <v>20.196</v>
+        <v>18.384</v>
       </c>
     </row>
   </sheetData>
